--- a/JPMorgan/JPMorgan-costs.xlsx
+++ b/JPMorgan/JPMorgan-costs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c741cee80ec8cf3/Financieel/IndexFondsenOnderzoek/KeuzeWelkIndexFonds/OnderzoekPerFonds/JPMorgan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="732" documentId="13_ncr:1_{A6ACE176-4C08-4AFF-ACEF-0847542540D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26446D85-8E1C-4A18-A5B8-3A8B5CD33AB1}"/>
+  <xr:revisionPtr revIDLastSave="822" documentId="13_ncr:1_{A6ACE176-4C08-4AFF-ACEF-0847542540D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5490A478-ADAE-42AB-9695-D4C975C8F3C1}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JPGL" sheetId="1" r:id="rId1"/>
@@ -32,15 +32,36 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Gerben van Loon</author>
+  </authors>
+  <commentList>
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{6EDAC4C1-41B0-4926-84DE-29B1FCACEA97}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Not a full calendar year
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Transaction costs</t>
   </si>
   <si>
-    <t>Gemiddelde</t>
-  </si>
-  <si>
     <t>Dividend income</t>
   </si>
   <si>
@@ -56,12 +77,6 @@
     <t>% lending income</t>
   </si>
   <si>
-    <t>% dividend lek</t>
-  </si>
-  <si>
-    <t>Tracking difference</t>
-  </si>
-  <si>
     <t>Securities on loan</t>
   </si>
   <si>
@@ -74,9 +89,6 @@
     <t>Fund launched on 9 July 2019</t>
   </si>
   <si>
-    <t>High transaction costs!</t>
-  </si>
-  <si>
     <t>% transaction costs</t>
   </si>
   <si>
@@ -92,13 +104,19 @@
     <t>Dividend leak</t>
   </si>
   <si>
-    <t>Costs in the past</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>Remarks</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Days in first fund year</t>
+  </si>
+  <si>
+    <t>% dividend leak</t>
+  </si>
+  <si>
+    <t>Expected costs</t>
   </si>
 </sst>
 </file>
@@ -112,7 +130,7 @@
     <numFmt numFmtId="165" formatCode="0.000%"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,6 +160,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -173,7 +197,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -198,12 +222,15 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Comma" xfId="3" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Komma" xfId="3" builtinId="3"/>
+    <cellStyle name="Procent" xfId="1" builtinId="5"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Valuta" xfId="2" builtinId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -216,6 +243,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -480,47 +511,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:L41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.42578125" customWidth="1"/>
-    <col min="2" max="3" width="17.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
-    <col min="6" max="6" width="91.85546875" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="8" width="26.85546875" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
-      <c r="F2" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="H2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
-      <c r="F3" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" s="11">
         <v>2019</v>
@@ -528,14 +560,18 @@
       <c r="C4" s="11">
         <v>2020</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D4" s="11">
+        <v>2021</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B5" s="13">
         <v>21299730</v>
@@ -543,12 +579,18 @@
       <c r="C5" s="13">
         <v>28309274</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D5" s="13">
+        <v>58997329</v>
+      </c>
+      <c r="E5" s="13"/>
+      <c r="F5" s="11"/>
+      <c r="H5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="13">
         <v>12071</v>
@@ -556,49 +598,83 @@
       <c r="C6" s="13">
         <v>46152</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D6" s="13">
+        <v>76066</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="10"/>
+      <c r="H6" s="24">
+        <v>43655</v>
+      </c>
+      <c r="I6" s="25">
+        <v>43466</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B7" s="14">
-        <v>1.9E-3</v>
+        <f>0.19%*H9</f>
+        <v>9.1616438356164384E-4</v>
       </c>
       <c r="C7" s="14">
         <v>1.9E-3</v>
       </c>
-      <c r="D7" s="17">
-        <f>AVERAGE(B7:C7)</f>
+      <c r="D7" s="14">
         <v>1.9E-3</v>
       </c>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" s="14"/>
+      <c r="F7" s="17"/>
+      <c r="H7" s="24">
+        <v>43831</v>
+      </c>
+      <c r="I7" s="25">
+        <v>43831</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B8" s="13">
-        <f t="shared" ref="B8:C8" si="0">B6/B7</f>
-        <v>6353157.8947368423</v>
+        <f t="shared" ref="B8:D8" si="0">B6/B7</f>
+        <v>13175583.133971293</v>
       </c>
       <c r="C8" s="13">
         <f t="shared" si="0"/>
         <v>24290526.315789472</v>
       </c>
-      <c r="D8" s="17"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D8" s="13">
+        <f t="shared" si="0"/>
+        <v>40034736.842105262</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="17"/>
+      <c r="H8">
+        <f>H7-H6</f>
+        <v>176</v>
+      </c>
+      <c r="I8">
+        <f>I7-I6</f>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
-      <c r="D9" s="17"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="17"/>
+      <c r="H9" s="26">
+        <f>H8/I8</f>
+        <v>0.48219178082191783</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10" s="13">
         <v>173137</v>
@@ -606,12 +682,16 @@
       <c r="C10" s="13">
         <v>700874</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D10" s="13">
+        <v>1174398</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="17"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11" s="13">
         <v>23455</v>
@@ -619,65 +699,86 @@
       <c r="C11" s="13">
         <v>91564</v>
       </c>
-      <c r="D11" s="17"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D11" s="13">
+        <v>133298</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="17"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B12" s="15">
-        <f t="shared" ref="B12:C12" si="1">B11/B10</f>
+        <f t="shared" ref="B12:D12" si="1">B11/B10</f>
         <v>0.13547075437370407</v>
       </c>
       <c r="C12" s="15">
         <f t="shared" si="1"/>
         <v>0.13064259767090805</v>
       </c>
-      <c r="D12" s="17">
-        <f>AVERAGE(B12:C12)</f>
-        <v>0.13305667602230606</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D12" s="15">
+        <f t="shared" si="1"/>
+        <v>0.11350325869083565</v>
+      </c>
+      <c r="E12" s="15"/>
+      <c r="F12" s="17">
+        <f>AVERAGE(B12:D12)</f>
+        <v>0.12653887024514926</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="18">
+        <f>(B11/B8)/H9</f>
+        <v>3.6918647999337252E-3</v>
+      </c>
+      <c r="C13" s="18">
+        <f t="shared" ref="C13:D13" si="2">C11/C8</f>
+        <v>3.7695354480845903E-3</v>
+      </c>
+      <c r="D13" s="18">
+        <f t="shared" si="2"/>
+        <v>3.3295585412667947E-3</v>
+      </c>
+      <c r="E13" s="18"/>
+      <c r="F13" s="17">
+        <f>AVERAGE(B13:D13)</f>
+        <v>3.596986263095037E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="18">
-        <f t="shared" ref="B13:C13" si="2">B11/B8</f>
-        <v>3.6918647999337252E-3</v>
-      </c>
-      <c r="C13" s="18">
-        <f t="shared" si="2"/>
-        <v>3.7695354480845903E-3</v>
-      </c>
-      <c r="D13" s="17">
-        <f>AVERAGE(B13:C13)</f>
-        <v>3.730700124009158E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
-        <v>10</v>
-      </c>
       <c r="B14" s="18">
-        <f t="shared" ref="B14:C14" si="3">B10/B8</f>
+        <f>(B10/B8)/H9</f>
         <v>2.7252116643194432E-2</v>
       </c>
       <c r="C14" s="18">
+        <f t="shared" ref="C14:D14" si="3">C10/C8</f>
+        <v>2.885380048535275E-2</v>
+      </c>
+      <c r="D14" s="18">
         <f t="shared" si="3"/>
-        <v>2.885380048535275E-2</v>
-      </c>
-      <c r="D14" s="19"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2.9334475324060683E-2</v>
+      </c>
+      <c r="E14" s="18"/>
+      <c r="F14" s="19"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
-      <c r="D15" s="17"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="17"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B16" s="13">
         <v>179</v>
@@ -685,43 +786,62 @@
       <c r="C16" s="13">
         <v>1155</v>
       </c>
-      <c r="D16" s="17"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D16" s="13">
+        <v>101</v>
+      </c>
+      <c r="E16" s="13"/>
+      <c r="F16" s="17"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="21">
+        <f>(B16/B8)/H9</f>
+        <v>2.8174964791649405E-5</v>
+      </c>
+      <c r="C17" s="21">
+        <f t="shared" ref="C17:D17" si="4">C16/C8</f>
+        <v>4.7549401976079045E-5</v>
+      </c>
+      <c r="D17" s="21">
+        <f t="shared" si="4"/>
+        <v>2.5228091394315464E-6</v>
+      </c>
+      <c r="E17" s="21"/>
+      <c r="F17" s="19">
+        <f>AVERAGE(B17:D17)</f>
+        <v>2.6082391969053334E-5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="21">
-        <f t="shared" ref="B17:C17" si="4">B16/B8</f>
-        <v>2.8174964791649409E-5</v>
-      </c>
-      <c r="C17" s="21">
-        <f t="shared" si="4"/>
-        <v>4.7549401976079045E-5</v>
-      </c>
-      <c r="D17" s="17">
-        <f>AVERAGE(B17:C17)</f>
-        <v>3.786218338386423E-5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="B18" s="14">
-        <f>89393/B8</f>
-        <v>1.4070640377764891E-2</v>
-      </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="19"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+        <f>89393/B5</f>
+        <v>4.1969076603318445E-3</v>
+      </c>
+      <c r="C18" s="14">
+        <f>89393/C5</f>
+        <v>3.1577284532270239E-3</v>
+      </c>
+      <c r="D18" s="14">
+        <f>280913/D5</f>
+        <v>4.7614528447550569E-3</v>
+      </c>
+      <c r="E18" s="20"/>
+      <c r="F18" s="19"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="12"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
-      <c r="D19" s="17"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="17"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>0</v>
       </c>
@@ -731,171 +851,211 @@
       <c r="C20" s="13">
         <v>109459</v>
       </c>
-      <c r="D20" s="17"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D20" s="13">
+        <v>111331</v>
+      </c>
+      <c r="E20" s="13"/>
+      <c r="F20" s="17"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B21" s="16">
-        <f>B20/B8</f>
-        <v>4.0490100240245215E-3</v>
+        <f>(B20/B8)/H9</f>
+        <v>4.0490100240245207E-3</v>
       </c>
       <c r="C21" s="16">
         <f>C20/C8</f>
         <v>4.5062424163633211E-3</v>
       </c>
-      <c r="D21" s="17">
-        <f>AVERAGE(B21:C21)</f>
-        <v>4.2776262201939218E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D21" s="16">
+        <f>D20/D8</f>
+        <v>2.7808600425945889E-3</v>
+      </c>
+      <c r="E21" s="16"/>
+      <c r="F21" s="17">
+        <f>AVERAGE(B21:D21)</f>
+        <v>3.7787041609941437E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
-      <c r="D22" s="17"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="17"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="19">
+        <f>D7+F13-F17+D21</f>
+        <v>8.2517639137205719E-3</v>
+      </c>
       <c r="C23" s="10"/>
-      <c r="D23" s="16"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24" s="16">
-        <f>D7+D13-D17+D21</f>
-        <v>9.8704641608192145E-3</v>
-      </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="16"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="10"/>
+      <c r="B24" s="16"/>
       <c r="C24" s="16"/>
       <c r="D24" s="16"/>
-      <c r="F24" s="7"/>
-      <c r="J24" s="6"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>20</v>
-      </c>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="H24" s="7"/>
+      <c r="L24" s="6"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
-      <c r="F25" s="7"/>
-      <c r="J25" s="22"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="H25" s="7"/>
+      <c r="L25" s="22"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
-      <c r="F26" s="7"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="7"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="7"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G28" s="5"/>
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="7"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G29" s="5"/>
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="E30" s="5"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
-      <c r="E31" s="5"/>
-      <c r="J31" s="3"/>
-      <c r="L31" s="23"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="5"/>
+      <c r="L31" s="3"/>
+      <c r="N31" s="23"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
-      <c r="E32" s="5"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
-      <c r="E33" s="5"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
-      <c r="E34" s="5"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="5"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
-      <c r="E35" s="5"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="5"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
-      <c r="E36" s="5"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="5"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
-      <c r="E37" s="5"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="5"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
-      <c r="E38" s="5"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="5"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
-      <c r="E39" s="5"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="5"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
-      <c r="E40" s="5"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="5"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
-      <c r="E41" s="5"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/JPMorgan/JPMorgan-costs.xlsx
+++ b/JPMorgan/JPMorgan-costs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c741cee80ec8cf3/Financieel/IndexFondsenOnderzoek/KeuzeWelkIndexFonds/OnderzoekPerFonds/JPMorgan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="822" documentId="13_ncr:1_{A6ACE176-4C08-4AFF-ACEF-0847542540D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5490A478-ADAE-42AB-9695-D4C975C8F3C1}"/>
+  <xr:revisionPtr revIDLastSave="825" documentId="13_ncr:1_{A6ACE176-4C08-4AFF-ACEF-0847542540D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1EACBDD-FDA9-44A4-B3B7-8BF2152B02A2}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23985" yWindow="2100" windowWidth="21915" windowHeight="16035" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JPGL" sheetId="1" r:id="rId1"/>
@@ -243,10 +243,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -514,7 +510,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E25" sqref="E24:E25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -891,7 +889,7 @@
       <c r="A23" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="19">
+      <c r="B23" s="17">
         <f>D7+F13-F17+D21</f>
         <v>8.2517639137205719E-3</v>
       </c>

--- a/JPMorgan/JPMorgan-costs.xlsx
+++ b/JPMorgan/JPMorgan-costs.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c741cee80ec8cf3/Financieel/IndexFondsenOnderzoek/KeuzeWelkIndexFonds/OnderzoekPerFonds/JPMorgan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="825" documentId="13_ncr:1_{A6ACE176-4C08-4AFF-ACEF-0847542540D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1EACBDD-FDA9-44A4-B3B7-8BF2152B02A2}"/>
+  <xr:revisionPtr revIDLastSave="871" documentId="13_ncr:1_{A6ACE176-4C08-4AFF-ACEF-0847542540D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{248A3BC9-A73C-4F1C-9AB5-6AB8FF43A14A}"/>
   <bookViews>
-    <workbookView xWindow="23985" yWindow="2100" windowWidth="21915" windowHeight="16035" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30735" yWindow="5190" windowWidth="15225" windowHeight="11355" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JPGL" sheetId="1" r:id="rId1"/>
+    <sheet name="TD" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Transaction costs</t>
   </si>
@@ -117,6 +118,30 @@
   </si>
   <si>
     <t>Expected costs</t>
+  </si>
+  <si>
+    <t>JPGL</t>
+  </si>
+  <si>
+    <t>JP Morgan Diversified Factor Global Developed (Region Aware) Equity Index</t>
+  </si>
+  <si>
+    <t>Diff</t>
+  </si>
+  <si>
+    <t>https://www.ftserussell.com/products/indices/jpmorgan-factor</t>
+  </si>
+  <si>
+    <t>Gross index</t>
+  </si>
+  <si>
+    <t>2020-2021 costs</t>
+  </si>
+  <si>
+    <t>2020-2021 costs ex transaction</t>
+  </si>
+  <si>
+    <t>Net index</t>
   </si>
 </sst>
 </file>
@@ -130,7 +155,7 @@
     <numFmt numFmtId="165" formatCode="0.000%"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,6 +192,14 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -191,42 +224,41 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
     <cellStyle name="Komma" xfId="3" builtinId="3"/>
     <cellStyle name="Procent" xfId="1" builtinId="5"/>
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -243,6 +275,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -510,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E25" sqref="E24:E25"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,128 +563,119 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
       <c r="H2" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11">
+      <c r="B4" s="1">
         <v>2019</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="1">
         <v>2020</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="1">
         <v>2021</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11" t="s">
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="9">
         <v>21299730</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="9">
         <v>28309274</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="9">
         <v>58997329</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="11"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="1"/>
       <c r="H5" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="9">
         <v>12071</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="9">
         <v>46152</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="9">
         <v>76066</v>
       </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="10"/>
-      <c r="H6" s="24">
+      <c r="E6" s="9"/>
+      <c r="H6" s="18">
         <v>43655</v>
       </c>
-      <c r="I6" s="25">
+      <c r="I6" s="18">
         <v>43466</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="10">
         <f>0.19%*H9</f>
         <v>9.1616438356164384E-4</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="10">
         <v>1.9E-3</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="10">
         <v>1.9E-3</v>
       </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="17"/>
-      <c r="H7" s="24">
+      <c r="E7" s="10"/>
+      <c r="F7" s="5"/>
+      <c r="H7" s="18">
         <v>43831</v>
       </c>
-      <c r="I7" s="25">
+      <c r="I7" s="18">
         <v>43831</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="9">
         <f t="shared" ref="B8:D8" si="0">B6/B7</f>
         <v>13175583.133971293</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="9">
         <f t="shared" si="0"/>
         <v>24290526.315789472</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="9">
         <f t="shared" si="0"/>
         <v>40034736.842105262</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="17"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="5"/>
       <c r="H8">
         <f>H7-H6</f>
         <v>176</v>
@@ -659,401 +686,499 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="17"/>
-      <c r="H9" s="26">
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="5"/>
+      <c r="H9" s="19">
         <f>H8/I8</f>
         <v>0.48219178082191783</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="A10" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="9">
         <v>173137</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="9">
         <v>700874</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="9">
         <v>1174398</v>
       </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="17"/>
-      <c r="H10" s="2"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="A11" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="9">
         <v>23455</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="9">
         <v>91564</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="9">
         <v>133298</v>
       </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="17"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="11">
         <f t="shared" ref="B12:D12" si="1">B11/B10</f>
         <v>0.13547075437370407</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="11">
         <f t="shared" si="1"/>
         <v>0.13064259767090805</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="11">
         <f t="shared" si="1"/>
         <v>0.11350325869083565</v>
       </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="17">
+      <c r="E12" s="11"/>
+      <c r="F12" s="5">
         <f>AVERAGE(B12:D12)</f>
         <v>0.12653887024514926</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+      <c r="A13" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="18">
+      <c r="B13" s="13">
         <f>(B11/B8)/H9</f>
         <v>3.6918647999337252E-3</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="13">
         <f t="shared" ref="C13:D13" si="2">C11/C8</f>
         <v>3.7695354480845903E-3</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="13">
         <f t="shared" si="2"/>
         <v>3.3295585412667947E-3</v>
       </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="17">
+      <c r="E13" s="13"/>
+      <c r="F13" s="5">
         <f>AVERAGE(B13:D13)</f>
         <v>3.596986263095037E-3</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+      <c r="A14" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="18">
+      <c r="B14" s="13">
         <f>(B10/B8)/H9</f>
         <v>2.7252116643194432E-2</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="13">
         <f t="shared" ref="C14:D14" si="3">C10/C8</f>
         <v>2.885380048535275E-2</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="13">
         <f t="shared" si="3"/>
         <v>2.9334475324060683E-2</v>
       </c>
-      <c r="E14" s="18"/>
-      <c r="F14" s="19"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="17"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+      <c r="A16" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="9">
         <v>179</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="9">
         <v>1155</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="9">
         <v>101</v>
       </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="17"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+      <c r="A17" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="21">
+      <c r="B17" s="15">
         <f>(B16/B8)/H9</f>
         <v>2.8174964791649405E-5</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C17" s="15">
         <f t="shared" ref="C17:D17" si="4">C16/C8</f>
         <v>4.7549401976079045E-5</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="15">
         <f t="shared" si="4"/>
         <v>2.5228091394315464E-6</v>
       </c>
-      <c r="E17" s="21"/>
-      <c r="F17" s="19">
+      <c r="E17" s="15"/>
+      <c r="F17" s="4">
         <f>AVERAGE(B17:D17)</f>
         <v>2.6082391969053334E-5</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="A18" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="14">
+      <c r="B18" s="10">
         <f>89393/B5</f>
         <v>4.1969076603318445E-3</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="10">
         <f>89393/C5</f>
         <v>3.1577284532270239E-3</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="10">
         <f>280913/D5</f>
         <v>4.7614528447550569E-3</v>
       </c>
-      <c r="E18" s="20"/>
-      <c r="F18" s="19"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="17"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
+      <c r="A20" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="13">
+      <c r="B20" s="9">
         <v>25724</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="9">
         <v>109459</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="9">
         <v>111331</v>
       </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="17"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="5"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
+      <c r="A21" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="16">
+      <c r="B21" s="12">
         <f>(B20/B8)/H9</f>
         <v>4.0490100240245207E-3</v>
       </c>
-      <c r="C21" s="16">
+      <c r="C21" s="12">
         <f>C20/C8</f>
         <v>4.5062424163633211E-3</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D21" s="12">
         <f>D20/D8</f>
         <v>2.7808600425945889E-3</v>
       </c>
-      <c r="E21" s="16"/>
-      <c r="F21" s="17">
+      <c r="E21" s="12"/>
+      <c r="F21" s="5">
         <f>AVERAGE(B21:D21)</f>
         <v>3.7787041609941437E-3</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="17"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
+      <c r="A23" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="17">
+      <c r="B23" s="5">
         <f>D7+F13-F17+D21</f>
         <v>8.2517639137205719E-3</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="16"/>
+      <c r="F23" s="12"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="H24" s="7"/>
-      <c r="L24" s="6"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="H24" s="6"/>
+      <c r="L24" s="5"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="H25" s="7"/>
-      <c r="L25" s="22"/>
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="4">
+        <f>AVERAGE(C7:D7)+AVERAGE(C13:D13)-AVERAGE(C17:D17)+AVERAGE(C21:D21)</f>
+        <v>9.068062118596891E-3</v>
+      </c>
+      <c r="H25" s="6"/>
+      <c r="L25" s="16"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="H26" s="7"/>
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="4">
+        <f>AVERAGE(C7:D7)+AVERAGE(C13:D13)-AVERAGE(C17:D17)</f>
+        <v>5.4245108891179368E-3</v>
+      </c>
+      <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="7"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
-      <c r="B28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="7"/>
+      <c r="A28" s="1"/>
+      <c r="B28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="6"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="7"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="G30" s="5"/>
+      <c r="G30" s="4"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="5"/>
-      <c r="L31" s="3"/>
-      <c r="N31" s="23"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="4"/>
+      <c r="L31" s="2"/>
+      <c r="N31" s="17"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="5"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="4"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="5"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="4"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="5"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="4"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="5"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="4"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="5"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="4"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="5"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="4"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="5"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="4"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="5"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="4"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="5"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="4"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="5"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{197D7ACD-9763-4656-92F0-A334697FE82D}">
+  <dimension ref="B2:G10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="78" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>2020</v>
+      </c>
+      <c r="D2">
+        <v>2021</v>
+      </c>
+      <c r="E2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="5">
+        <v>6.3200000000000006E-2</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.22589999999999999</v>
+      </c>
+      <c r="E3" s="5">
+        <v>-0.1028</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="5">
+        <v>6.08E-2</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.2253</v>
+      </c>
+      <c r="E4" s="5">
+        <v>-0.104</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="5">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="E5" s="5">
+        <v>-9.8000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="5">
+        <f>C3-C5</f>
+        <v>-4.7999999999999987E-3</v>
+      </c>
+      <c r="D6" s="5">
+        <f t="shared" ref="D6:E6" si="0">D3-D5</f>
+        <v>-7.100000000000023E-3</v>
+      </c>
+      <c r="E6" s="5">
+        <f t="shared" si="0"/>
+        <v>-4.7999999999999987E-3</v>
+      </c>
+      <c r="G6" s="5">
+        <f>AVERAGE(C6:E6)</f>
+        <v>-5.5666666666666738E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B9" r:id="rId1" xr:uid="{85C28FF9-FEA8-4D23-834E-6193B8C3E5B1}"/>
+    <hyperlink ref="B4" r:id="rId2" location="/performance" xr:uid="{89FDF3DE-1B59-48EA-A35C-D4FE1FC32B36}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/JPMorgan/JPMorgan-costs.xlsx
+++ b/JPMorgan/JPMorgan-costs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c741cee80ec8cf3/Financieel/IndexFondsenOnderzoek/KeuzeWelkIndexFonds/OnderzoekPerFonds/JPMorgan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="871" documentId="13_ncr:1_{A6ACE176-4C08-4AFF-ACEF-0847542540D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{248A3BC9-A73C-4F1C-9AB5-6AB8FF43A14A}"/>
+  <xr:revisionPtr revIDLastSave="977" documentId="13_ncr:1_{A6ACE176-4C08-4AFF-ACEF-0847542540D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7513E657-576D-4D5B-A22B-28D018D59275}"/>
   <bookViews>
-    <workbookView xWindow="30735" yWindow="5190" windowWidth="15225" windowHeight="11355" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JPGL" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t>Transaction costs</t>
   </si>
@@ -135,13 +135,31 @@
     <t>Gross index</t>
   </si>
   <si>
-    <t>2020-2021 costs</t>
-  </si>
-  <si>
-    <t>2020-2021 costs ex transaction</t>
-  </si>
-  <si>
     <t>Net index</t>
+  </si>
+  <si>
+    <t>https://am.jpmorgan.com/nl/nl/asset-management/per/products/jpm-global-equity-multi-factor-ucits-etf-usd-acc-ie00bjrcll96#/performance</t>
+  </si>
+  <si>
+    <t>Avg</t>
+  </si>
+  <si>
+    <t>Copy paste</t>
+  </si>
+  <si>
+    <t>Gross tracking difference</t>
+  </si>
+  <si>
+    <t>TER</t>
+  </si>
+  <si>
+    <t>Dividend leak costs</t>
+  </si>
+  <si>
+    <t>Lending income</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -231,7 +249,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -256,13 +274,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
+    <cellStyle name="Comma" xfId="3" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
-    <cellStyle name="Komma" xfId="3" builtinId="3"/>
-    <cellStyle name="Procent" xfId="1" builtinId="5"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
-    <cellStyle name="Valuta" xfId="2" builtinId="4"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -275,10 +294,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -544,25 +559,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:N41"/>
+  <dimension ref="A2:P41"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.42578125" customWidth="1"/>
-    <col min="2" max="4" width="17.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="8" max="8" width="26.85546875" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="17.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1"/>
+    <col min="10" max="10" width="26.85546875" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>8</v>
       </c>
@@ -571,16 +586,18 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="H2" s="1" t="s">
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="J2" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>2019</v>
       </c>
@@ -590,12 +607,18 @@
       <c r="D4" s="1">
         <v>2021</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1" t="s">
+      <c r="E4" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2023</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -608,13 +631,19 @@
       <c r="D5" s="9">
         <v>58997329</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="1"/>
-      <c r="H5" s="1" t="s">
+      <c r="E5" s="9">
+        <v>87190108</v>
+      </c>
+      <c r="F5" s="9">
+        <v>155354175</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="1"/>
+      <c r="J5" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -627,20 +656,26 @@
       <c r="D6" s="9">
         <v>76066</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="H6" s="18">
+      <c r="E6" s="9">
+        <v>152279</v>
+      </c>
+      <c r="F6" s="9">
+        <v>239623</v>
+      </c>
+      <c r="G6" s="9"/>
+      <c r="J6" s="18">
         <v>43655</v>
       </c>
-      <c r="I6" s="18">
+      <c r="K6" s="18">
         <v>43466</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="10">
-        <f>0.19%*H9</f>
+        <f>0.19%*J9</f>
         <v>9.1616438356164384E-4</v>
       </c>
       <c r="C7" s="10">
@@ -649,21 +684,27 @@
       <c r="D7" s="10">
         <v>1.9E-3</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="5"/>
-      <c r="H7" s="18">
+      <c r="E7" s="10">
+        <v>1.9E-3</v>
+      </c>
+      <c r="F7" s="10">
+        <v>1.9E-3</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="5"/>
+      <c r="J7" s="18">
         <v>43831</v>
       </c>
-      <c r="I7" s="18">
+      <c r="K7" s="18">
         <v>43831</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="9">
-        <f t="shared" ref="B8:D8" si="0">B6/B7</f>
+        <f t="shared" ref="B8:F8" si="0">B6/B7</f>
         <v>13175583.133971293</v>
       </c>
       <c r="C8" s="9">
@@ -674,29 +715,39 @@
         <f t="shared" si="0"/>
         <v>40034736.842105262</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="5"/>
-      <c r="H8">
-        <f>H7-H6</f>
+      <c r="E8" s="9">
+        <f t="shared" si="0"/>
+        <v>80146842.105263159</v>
+      </c>
+      <c r="F8" s="9">
+        <f t="shared" si="0"/>
+        <v>126117368.42105263</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="H8" s="5"/>
+      <c r="J8">
+        <f>J7-J6</f>
         <v>176</v>
       </c>
-      <c r="I8">
-        <f>I7-I6</f>
+      <c r="K8">
+        <f>K7-K6</f>
         <v>365</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
-      <c r="F9" s="5"/>
-      <c r="H9" s="19">
-        <f>H8/I8</f>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="5"/>
+      <c r="J9" s="19">
+        <f>J8/K8</f>
         <v>0.48219178082191783</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -709,10 +760,16 @@
       <c r="D10" s="9">
         <v>1174398</v>
       </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E10" s="9">
+        <v>2567469</v>
+      </c>
+      <c r="F10" s="9">
+        <v>4090627</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -725,10 +782,16 @@
       <c r="D11" s="9">
         <v>133298</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E11" s="9">
+        <v>314941</v>
+      </c>
+      <c r="F11" s="9">
+        <v>484947</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -744,61 +807,87 @@
         <f t="shared" si="1"/>
         <v>0.11350325869083565</v>
       </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="5">
+      <c r="E12" s="11">
+        <f t="shared" ref="E12:F12" si="2">E11/E10</f>
+        <v>0.12266594065984827</v>
+      </c>
+      <c r="F12" s="11">
+        <f t="shared" si="2"/>
+        <v>0.11855077473453336</v>
+      </c>
+      <c r="G12" s="11"/>
+      <c r="H12" s="5">
         <f>AVERAGE(B12:D12)</f>
         <v>0.12653887024514926</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="13">
-        <f>(B11/B8)/H9</f>
+        <f>(B11/B8)/J9</f>
         <v>3.6918647999337252E-3</v>
       </c>
       <c r="C13" s="13">
-        <f t="shared" ref="C13:D13" si="2">C11/C8</f>
+        <f t="shared" ref="C13:D13" si="3">C11/C8</f>
         <v>3.7695354480845903E-3</v>
       </c>
       <c r="D13" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.3295585412667947E-3</v>
       </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="5">
+      <c r="E13" s="13">
+        <f t="shared" ref="E13:F13" si="4">E11/E8</f>
+        <v>3.9295497081015766E-3</v>
+      </c>
+      <c r="F13" s="13">
+        <f t="shared" si="4"/>
+        <v>3.8452039244980655E-3</v>
+      </c>
+      <c r="G13" s="13"/>
+      <c r="H13" s="5">
         <f>AVERAGE(B13:D13)</f>
         <v>3.596986263095037E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
       <c r="B14" s="13">
-        <f>(B10/B8)/H9</f>
+        <f>(B10/B8)/J9</f>
         <v>2.7252116643194432E-2</v>
       </c>
       <c r="C14" s="13">
-        <f t="shared" ref="C14:D14" si="3">C10/C8</f>
+        <f t="shared" ref="C14:D14" si="5">C10/C8</f>
         <v>2.885380048535275E-2</v>
       </c>
       <c r="D14" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.9334475324060683E-2</v>
       </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E14" s="13">
+        <f t="shared" ref="E14:F14" si="6">E10/E8</f>
+        <v>3.2034562218034003E-2</v>
+      </c>
+      <c r="F14" s="13">
+        <f t="shared" si="6"/>
+        <v>3.2435080522320477E-2</v>
+      </c>
+      <c r="G14" s="13"/>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
-      <c r="F15" s="5"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -811,32 +900,46 @@
       <c r="D16" s="9">
         <v>101</v>
       </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="5"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E16" s="9">
+        <v>2527</v>
+      </c>
+      <c r="F16" s="9">
+        <v>12975</v>
+      </c>
+      <c r="G16" s="9"/>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>5</v>
       </c>
       <c r="B17" s="15">
-        <f>(B16/B8)/H9</f>
+        <f>(B16/B8)/J9</f>
         <v>2.8174964791649405E-5</v>
       </c>
       <c r="C17" s="15">
-        <f t="shared" ref="C17:D17" si="4">C16/C8</f>
+        <f t="shared" ref="C17:F17" si="7">C16/C8</f>
         <v>4.7549401976079045E-5</v>
       </c>
       <c r="D17" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.5228091394315464E-6</v>
       </c>
-      <c r="E17" s="15"/>
-      <c r="F17" s="4">
+      <c r="E17" s="15">
+        <f t="shared" si="7"/>
+        <v>3.1529626540757423E-5</v>
+      </c>
+      <c r="F17" s="15">
+        <f t="shared" si="7"/>
+        <v>1.0288035789552755E-4</v>
+      </c>
+      <c r="G17" s="15"/>
+      <c r="H17" s="4">
         <f>AVERAGE(B17:D17)</f>
         <v>2.6082391969053334E-5</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -852,17 +955,27 @@
         <f>280913/D5</f>
         <v>4.7614528447550569E-3</v>
       </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E18" s="10">
+        <f>1333775/E8</f>
+        <v>1.6641641329401952E-2</v>
+      </c>
+      <c r="F18" s="10">
+        <f>2158172/F8</f>
+        <v>1.7112409075923429E-2</v>
+      </c>
+      <c r="G18" s="14"/>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
-      <c r="F19" s="5"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -875,15 +988,21 @@
       <c r="D20" s="9">
         <v>111331</v>
       </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="5"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E20" s="9">
+        <v>101880</v>
+      </c>
+      <c r="F20" s="9">
+        <v>143588</v>
+      </c>
+      <c r="G20" s="9"/>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="12">
-        <f>(B20/B8)/H9</f>
+        <f>(B20/B8)/J9</f>
         <v>4.0490100240245207E-3</v>
       </c>
       <c r="C21" s="12">
@@ -894,176 +1013,303 @@
         <f>D20/D8</f>
         <v>2.7808600425945889E-3</v>
       </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="5">
+      <c r="E21" s="12">
+        <f>E20/E8</f>
+        <v>1.2711667399969793E-3</v>
+      </c>
+      <c r="F21" s="12">
+        <f>F20/F8</f>
+        <v>1.1385267691331801E-3</v>
+      </c>
+      <c r="G21" s="12"/>
+      <c r="H21" s="5">
         <f>AVERAGE(B21:D21)</f>
         <v>3.7787041609941437E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
       <c r="E22" s="13"/>
-      <c r="F22" s="5"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>19</v>
       </c>
       <c r="B23" s="5">
-        <f>D7+F13-F17+D21</f>
-        <v>8.2517639137205719E-3</v>
-      </c>
-      <c r="F23" s="12"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+        <f>F7+H13-H17+F21</f>
+        <v>6.6094306402591629E-3</v>
+      </c>
+      <c r="H23" s="12"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
-      <c r="H24" s="6"/>
-      <c r="L24" s="5"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="4">
-        <f>AVERAGE(C7:D7)+AVERAGE(C13:D13)-AVERAGE(C17:D17)+AVERAGE(C21:D21)</f>
-        <v>9.068062118596891E-3</v>
-      </c>
-      <c r="H25" s="6"/>
-      <c r="L25" s="16"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="4">
-        <f>AVERAGE(C7:D7)+AVERAGE(C13:D13)-AVERAGE(C17:D17)</f>
-        <v>5.4245108891179368E-3</v>
-      </c>
-      <c r="H26" s="6"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G27" s="4"/>
-      <c r="H27" s="6"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="J24" s="6"/>
+      <c r="N24" s="5"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B25" s="4"/>
+      <c r="J25" s="6"/>
+      <c r="N25" s="16"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B26" s="4"/>
+      <c r="J26" s="6"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I27" s="4"/>
+      <c r="J27" s="6"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="6"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I28" s="4"/>
+      <c r="J28" s="6"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="6"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G30" s="4"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="4"/>
-      <c r="L31" s="2"/>
-      <c r="N31" s="17"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="4"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="4"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="4"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="4"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I29" s="4"/>
+      <c r="J29" s="6"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B30" s="1">
+        <f>B4</f>
+        <v>2019</v>
+      </c>
+      <c r="C30" s="1">
+        <f t="shared" ref="C30:F30" si="8">C4</f>
+        <v>2020</v>
+      </c>
+      <c r="D30" s="1">
+        <f t="shared" si="8"/>
+        <v>2021</v>
+      </c>
+      <c r="E30" s="1">
+        <f t="shared" si="8"/>
+        <v>2022</v>
+      </c>
+      <c r="F30" s="1">
+        <f t="shared" si="8"/>
+        <v>2023</v>
+      </c>
+      <c r="G30" s="1"/>
+      <c r="I30" s="4"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2">
+        <v>1.9E-3</v>
+      </c>
+      <c r="C31" s="2">
+        <v>1.9E-3</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1.9E-3</v>
+      </c>
+      <c r="E31" s="2">
+        <v>1.9E-3</v>
+      </c>
+      <c r="F31" s="2">
+        <v>1.9E-3</v>
+      </c>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="4"/>
+      <c r="N31" s="2"/>
+      <c r="P31" s="17"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2">
+        <f>B13</f>
+        <v>3.6918647999337252E-3</v>
+      </c>
+      <c r="C32" s="2">
+        <f t="shared" ref="C32:F32" si="9">C13</f>
+        <v>3.7695354480845903E-3</v>
+      </c>
+      <c r="D32" s="2">
+        <f t="shared" si="9"/>
+        <v>3.3295585412667947E-3</v>
+      </c>
+      <c r="E32" s="2">
+        <f t="shared" si="9"/>
+        <v>3.9295497081015766E-3</v>
+      </c>
+      <c r="F32" s="2">
+        <f t="shared" si="9"/>
+        <v>3.8452039244980655E-3</v>
+      </c>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="4"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2">
+        <f>B17</f>
+        <v>2.8174964791649405E-5</v>
+      </c>
+      <c r="C33" s="2">
+        <f t="shared" ref="C33:F33" si="10">C17</f>
+        <v>4.7549401976079045E-5</v>
+      </c>
+      <c r="D33" s="2">
+        <f t="shared" si="10"/>
+        <v>2.5228091394315464E-6</v>
+      </c>
+      <c r="E33" s="2">
+        <f t="shared" si="10"/>
+        <v>3.1529626540757423E-5</v>
+      </c>
+      <c r="F33" s="2">
+        <f t="shared" si="10"/>
+        <v>1.0288035789552755E-4</v>
+      </c>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="4"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="2">
+        <f>B21</f>
+        <v>4.0490100240245207E-3</v>
+      </c>
+      <c r="C34" s="2">
+        <f t="shared" ref="C34:F34" si="11">C21</f>
+        <v>4.5062424163633211E-3</v>
+      </c>
+      <c r="D34" s="2">
+        <f t="shared" si="11"/>
+        <v>2.7808600425945889E-3</v>
+      </c>
+      <c r="E34" s="2">
+        <f t="shared" si="11"/>
+        <v>1.2711667399969793E-3</v>
+      </c>
+      <c r="F34" s="2">
+        <f t="shared" si="11"/>
+        <v>1.1385267691331801E-3</v>
+      </c>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="4"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="2">
+        <f>B31+B32-B33+B34</f>
+        <v>9.6126998591665978E-3</v>
+      </c>
+      <c r="C35" s="2">
+        <f t="shared" ref="C35:F35" si="12">C31+C32-C33+C34</f>
+        <v>1.0128228462471831E-2</v>
+      </c>
+      <c r="D35" s="2">
+        <f t="shared" si="12"/>
+        <v>8.0078957747219525E-3</v>
+      </c>
+      <c r="E35" s="2">
+        <f t="shared" si="12"/>
+        <v>7.0691868215577982E-3</v>
+      </c>
+      <c r="F35" s="2">
+        <f t="shared" si="12"/>
+        <v>6.7808503357357176E-3</v>
+      </c>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="4"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
-      <c r="G36" s="4"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="4"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
-      <c r="G37" s="4"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="4"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
-      <c r="G38" s="4"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="4"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
-      <c r="G39" s="4"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="4"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
-      <c r="G40" s="4"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="4"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
-      <c r="G41" s="4"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1074,10 +1320,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{197D7ACD-9763-4656-92F0-A334697FE82D}">
-  <dimension ref="B2:G10"/>
+  <dimension ref="B2:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:E8"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1085,7 +1331,7 @@
     <col min="2" max="2" width="78" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C2">
         <v>2020</v>
       </c>
@@ -1095,8 +1341,14 @@
       <c r="E2">
         <v>2022</v>
       </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>2023</v>
+      </c>
+      <c r="H2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>20</v>
       </c>
@@ -1109,10 +1361,14 @@
       <c r="E3" s="5">
         <v>-0.1028</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F3" s="5">
+        <v>0.1341</v>
+      </c>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C4" s="5">
         <v>6.08E-2</v>
@@ -1124,60 +1380,177 @@
         <v>-0.104</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="20" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="5">
-        <v>6.8000000000000005E-2</v>
+        <v>6.8400000000000002E-2</v>
       </c>
       <c r="D5" s="5">
         <v>0.23300000000000001</v>
       </c>
       <c r="E5" s="5">
-        <v>-9.8000000000000004E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+        <v>-9.7500000000000003E-2</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0.1406</v>
+      </c>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="5">
         <f>C3-C5</f>
-        <v>-4.7999999999999987E-3</v>
+        <v>-5.1999999999999963E-3</v>
       </c>
       <c r="D6" s="5">
-        <f t="shared" ref="D6:E6" si="0">D3-D5</f>
+        <f t="shared" ref="D6:F6" si="0">D3-D5</f>
         <v>-7.100000000000023E-3</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" si="0"/>
-        <v>-4.7999999999999987E-3</v>
-      </c>
-      <c r="G6" s="5">
-        <f>AVERAGE(C6:E6)</f>
-        <v>-5.5666666666666738E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+        <v>-5.2999999999999992E-3</v>
+      </c>
+      <c r="F6" s="5">
+        <f t="shared" si="0"/>
+        <v>-6.5000000000000058E-3</v>
+      </c>
+      <c r="H6" s="5">
+        <f>AVERAGE(C6:F6)</f>
+        <v>-6.025000000000006E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="20" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="21" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C17" s="1">
+        <f>C2</f>
+        <v>2020</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" ref="D17:F17" si="1">D2</f>
+        <v>2021</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="1"/>
+        <v>2022</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="1"/>
+        <v>2023</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="str">
+        <f>B3</f>
+        <v>JPGL</v>
+      </c>
+      <c r="C18" s="5">
+        <f>C3</f>
+        <v>6.3200000000000006E-2</v>
+      </c>
+      <c r="D18" s="5">
+        <f t="shared" ref="D18:F18" si="2">D3</f>
+        <v>0.22589999999999999</v>
+      </c>
+      <c r="E18" s="5">
+        <f t="shared" si="2"/>
+        <v>-0.1028</v>
+      </c>
+      <c r="F18" s="5">
+        <f t="shared" si="2"/>
+        <v>0.1341</v>
+      </c>
+      <c r="G18" s="5">
+        <f>AVERAGE(C18:F18)</f>
+        <v>8.0100000000000005E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" t="str">
+        <f>B5</f>
+        <v>Gross index</v>
+      </c>
+      <c r="C19" s="5">
+        <f>C5</f>
+        <v>6.8400000000000002E-2</v>
+      </c>
+      <c r="D19" s="5">
+        <f t="shared" ref="D19:F19" si="3">D5</f>
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="E19" s="5">
+        <f t="shared" si="3"/>
+        <v>-9.7500000000000003E-2</v>
+      </c>
+      <c r="F19" s="5">
+        <f t="shared" si="3"/>
+        <v>0.1406</v>
+      </c>
+      <c r="G19" s="5">
+        <f t="shared" ref="G19:G20" si="4">AVERAGE(C19:F19)</f>
+        <v>8.6125000000000007E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="5">
+        <f>C19-C18</f>
+        <v>5.1999999999999963E-3</v>
+      </c>
+      <c r="D20" s="5">
+        <f t="shared" ref="D20:F20" si="5">D19-D18</f>
+        <v>7.100000000000023E-3</v>
+      </c>
+      <c r="E20" s="5">
+        <f t="shared" si="5"/>
+        <v>5.2999999999999992E-3</v>
+      </c>
+      <c r="F20" s="5">
+        <f t="shared" si="5"/>
+        <v>6.5000000000000058E-3</v>
+      </c>
+      <c r="G20" s="5">
+        <f t="shared" si="4"/>
+        <v>6.025000000000006E-3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B9" r:id="rId1" xr:uid="{85C28FF9-FEA8-4D23-834E-6193B8C3E5B1}"/>
     <hyperlink ref="B4" r:id="rId2" location="/performance" xr:uid="{89FDF3DE-1B59-48EA-A35C-D4FE1FC32B36}"/>
+    <hyperlink ref="B12" r:id="rId3" location="/performance" xr:uid="{F5D1DE31-5534-4048-9581-13A70D579B6C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
